--- a/NOIP进度表.xlsx
+++ b/NOIP进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="283">
   <si>
     <t>1.2编程基础之变量定义、赋值及转换</t>
   </si>
@@ -4068,6 +4068,171 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>练习</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  ? : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运算</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   s= ( n%2==0) ? "even" :"odd";</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得不了满分是因为：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cin </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读不了空格</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> long</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> long long</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4508,8 +4673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="15"/>
@@ -5078,7 +5243,9 @@
       <c r="B55" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4">
@@ -5088,7 +5255,9 @@
       <c r="B56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="D56" s="7" t="s">
         <v>270</v>
       </c>
@@ -5100,8 +5269,12 @@
       <c r="B57" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="7"/>
+      <c r="C57" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4">
@@ -5110,8 +5283,12 @@
       <c r="B58" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="7"/>
+      <c r="C58" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4">
@@ -5120,8 +5297,12 @@
       <c r="B59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="7"/>
+      <c r="C59" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4">
@@ -7369,12 +7550,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A77:B77"/>
     <mergeCell ref="A249:B249"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="A166:B166"/>
@@ -7382,6 +7557,12 @@
     <mergeCell ref="A209:B209"/>
     <mergeCell ref="A222:B222"/>
     <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A77:B77"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/NOIP进度表.xlsx
+++ b/NOIP进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="289">
   <si>
     <t>1.2编程基础之变量定义、赋值及转换</t>
   </si>
@@ -4075,6 +4075,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -4084,17 +4088,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>练习</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  ? : </t>
+      <t>得不了满分是因为：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cin </t>
     </r>
     <r>
       <rPr>
@@ -4105,17 +4109,84 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>运算</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   s= ( n%2==0) ? "even" :"odd";</t>
+      <t>读不了空格</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> long</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> long long</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4124,6 +4195,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点坑爹！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -4133,17 +4212,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>得不了满分是因为：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cin </t>
+      <t>练习</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  ? : </t>
     </r>
     <r>
       <rPr>
@@ -4154,11 +4233,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>读不了空格</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>运算</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   s= </t>
+    </r>
     <r>
       <rPr>
         <u/>
@@ -4168,17 +4254,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>用</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> long</t>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( n%2==0) ? "even" :"odd"  </t>
     </r>
     <r>
       <rPr>
@@ -4189,17 +4275,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># include&lt;algorithm&gt; </t>
     </r>
     <r>
       <rPr>
@@ -4210,17 +4302,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>或者</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> long long</t>
+      <t>直接用</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">max </t>
     </r>
     <r>
       <rPr>
@@ -4231,7 +4323,46 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>类型</t>
+      <t>函数，不要麻烦的打擂台了。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点小难度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>练习用</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">switch </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4673,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="15"/>
@@ -5270,10 +5401,10 @@
         <v>57</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5284,10 +5415,10 @@
         <v>58</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5298,10 +5429,10 @@
         <v>59</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5331,7 +5462,9 @@
       <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4">
@@ -5341,7 +5474,9 @@
       <c r="B63" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4">
@@ -5351,8 +5486,12 @@
       <c r="B64" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="7"/>
+      <c r="C64" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4">
@@ -5371,7 +5510,9 @@
       <c r="B66" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4">
@@ -5391,7 +5532,9 @@
       <c r="B68" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4">
@@ -5401,8 +5544,12 @@
       <c r="B69" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="7"/>
+      <c r="C69" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4">
@@ -5411,7 +5558,9 @@
       <c r="B70" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4">
@@ -5421,8 +5570,12 @@
       <c r="B71" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="7"/>
+      <c r="C71" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4">
@@ -5431,7 +5584,9 @@
       <c r="B72" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4">
@@ -5441,8 +5596,12 @@
       <c r="B73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="7"/>
+      <c r="C73" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4">
@@ -5486,7 +5645,9 @@
       <c r="B79" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4">
@@ -7550,6 +7711,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A77:B77"/>
     <mergeCell ref="A249:B249"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="A166:B166"/>
@@ -7557,12 +7724,6 @@
     <mergeCell ref="A209:B209"/>
     <mergeCell ref="A222:B222"/>
     <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A77:B77"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
